--- a/evaluation/results/isolation_forest/augmented/noise_2/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7088014981273408</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="C2">
-        <v>0.9054545454545454</v>
+        <v>0.5521601685985248</v>
       </c>
       <c r="D2">
-        <v>0.4662921348314606</v>
+        <v>0.9812734082397003</v>
       </c>
       <c r="E2">
-        <v>0.61557478368356</v>
+        <v>0.7066756574511126</v>
       </c>
       <c r="F2">
-        <v>0.5163832434674409</v>
+        <v>0.8492706645056726</v>
       </c>
       <c r="G2">
-        <v>0.4751559633027523</v>
+        <v>0.9527939016714455</v>
       </c>
       <c r="H2">
-        <v>0.7088014981273408</v>
+        <v>0.7908969125671562</v>
       </c>
       <c r="I2">
-        <v>249</v>
+        <v>524</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>425</v>
       </c>
       <c r="K2">
-        <v>508</v>
+        <v>109</v>
       </c>
       <c r="L2">
-        <v>285</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6406052963430012</v>
+        <v>0.9159663865546218</v>
       </c>
       <c r="C2">
-        <v>0.951310861423221</v>
+        <v>0.2041198501872659</v>
       </c>
       <c r="D2">
-        <v>0.7656367746797287</v>
+        <v>0.333843797856049</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.9054545454545454</v>
+        <v>0.5521601685985248</v>
       </c>
       <c r="C3">
-        <v>0.4662921348314606</v>
+        <v>0.9812734082397003</v>
       </c>
       <c r="D3">
-        <v>0.61557478368356</v>
+        <v>0.7066756574511126</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7088014981273408</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="C4">
-        <v>0.7088014981273408</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="D4">
-        <v>0.7088014981273408</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="E4">
-        <v>0.7088014981273408</v>
+        <v>0.5926966292134831</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7730299208987733</v>
+        <v>0.7340632775765733</v>
       </c>
       <c r="C5">
-        <v>0.7088014981273408</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="D5">
-        <v>0.6906057791816443</v>
+        <v>0.5202597276535808</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7730299208987733</v>
+        <v>0.7340632775765733</v>
       </c>
       <c r="C6">
-        <v>0.7088014981273408</v>
+        <v>0.5926966292134831</v>
       </c>
       <c r="D6">
-        <v>0.6906057791816443</v>
+        <v>0.5202597276535808</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>508</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>249</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
